--- a/www/IndicatorsPerCountry/Syria_CattleperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
+++ b/www/IndicatorsPerCountry/Syria_CattleperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
@@ -117,13 +117,13 @@
     <t>Klein Goldewijk, Kees (2015). Cattle per Capita. http://hdl.handle.net/10622/SO62N5, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SO62N5.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SO62N5.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SO62N5.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SO62N5.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SO62N5.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SO62N5.bib</t>
   </si>
 </sst>
 </file>
